--- a/.gitbook/assets/Atlas UAT Test Full Integration Template.xlsx
+++ b/.gitbook/assets/Atlas UAT Test Full Integration Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BehramKotwal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A6643C-B442-49CE-AFE0-78F6BC721F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E69A8DA-E513-42E8-858F-A59A0A110146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5C553A94-E5D0-4375-8F0F-568CCBBD0110}"/>
   </bookViews>
@@ -33,6 +33,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Behram Kotwal</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{F0933F3B-3F72-4917-8203-5B6E8F3257B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Behram Kotwal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+These are just samples. Any city pair and dates can be used which fulfill the user case.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
@@ -76,14 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Baggage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Without Baggage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Roundtrip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,39 +134,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>orderNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Post Ticketing Purchase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Extra Baggage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Refund</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1ADT with Baggage in both bounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ADT extra baggage in outbound
-1CHD extra baggage in inbound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All of them with Baggage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ADT extra baggage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1ADT1CHD refund</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,17 +170,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>With Baggage</t>
-  </si>
-  <si>
     <t>Airline PNR</t>
+  </si>
+  <si>
+    <t>Ancillary Baggage</t>
+  </si>
+  <si>
+    <t>Without Ancillary Baggage</t>
+  </si>
+  <si>
+    <t>With Ancillary Baggage</t>
+  </si>
+  <si>
+    <t>1ADT with Ancillary Baggage in both bounds</t>
+  </si>
+  <si>
+    <t>All of them with Ancillary Baggage</t>
+  </si>
+  <si>
+    <t>Extra Ancillary Baggage</t>
+  </si>
+  <si>
+    <t>1ADT extra Ancillary Baggage in outbound
+1CHD extra Ancillary Baggage in inbound</t>
+  </si>
+  <si>
+    <t>1ADT extra Ancillary baggage</t>
+  </si>
+  <si>
+    <t>OrderNo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +229,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -550,11 +589,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29CEDC-C889-4F81-B4B7-A0FBD55E43B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29CEDC-C889-4F81-B4B7-A0FBD55E43B6}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -566,7 +605,7 @@
     <col min="6" max="6" width="30.36328125" customWidth="1"/>
     <col min="7" max="7" width="28.6328125" customWidth="1"/>
     <col min="8" max="8" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.90625" customWidth="1"/>
+    <col min="9" max="9" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.26953125" customWidth="1"/>
     <col min="12" max="12" width="14.6328125" bestFit="1" customWidth="1"/>
@@ -574,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -589,25 +628,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -627,24 +666,24 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -659,30 +698,30 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="29">
+    <row r="4" spans="1:12" ht="58">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -691,24 +730,24 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -720,59 +759,60 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/.gitbook/assets/Atlas UAT Test Full Integration Template.xlsx
+++ b/.gitbook/assets/Atlas UAT Test Full Integration Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BehramKotwal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594C7D65-7D8F-4490-984C-335D9F60FE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DEA142-F5BD-48ED-AA69-F9735D2D15F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{5C553A94-E5D0-4375-8F0F-568CCBBD0110}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C553A94-E5D0-4375-8F0F-568CCBBD0110}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>PassengerType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,12 +149,6 @@
   </si>
   <si>
     <t>Mandatory / Optional</t>
-  </si>
-  <si>
-    <t>With Multiple Ancillary Baggage (1ADT and 1 CHD with Ancillary Baggage)</t>
-  </si>
-  <si>
-    <t>With Multiple Ancillary Baggage (All passengers with Ancillary Baggage)</t>
   </si>
   <si>
     <t>Oneway</t>
@@ -575,7 +569,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -663,7 +657,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="29">
@@ -695,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="58">
@@ -715,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>26</v>
@@ -727,7 +721,7 @@
         <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="43.5">
@@ -747,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -759,7 +753,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="29">
@@ -768,28 +762,28 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="29">
@@ -821,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
